--- a/grupos/4BLCM - Estadisticos 2020.xlsx
+++ b/grupos/4BLCM - Estadisticos 2020.xlsx
@@ -3696,6 +3696,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4232,7 +4233,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4877,6 +4879,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/4BLCM - Estadisticos 2020.xlsx
+++ b/grupos/4BLCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="157">
   <si>
     <t>Materia</t>
   </si>
@@ -197,12 +197,12 @@
     <t>Avila Coronado Julieta</t>
   </si>
   <si>
+    <t>Ángel Martínez Noe Cristobal</t>
+  </si>
+  <si>
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
-    <t>Ángel Martínez Noe Cristobal</t>
-  </si>
-  <si>
     <t>Ortega Valle Manuel</t>
   </si>
   <si>
@@ -218,6 +218,27 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>AMABLE</t>
+  </si>
+  <si>
+    <t>ALMEIDA</t>
+  </si>
+  <si>
+    <t>BALVIN</t>
+  </si>
+  <si>
+    <t>DEMUNER</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GROTH</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
@@ -227,30 +248,84 @@
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>HEREDIA</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
     <t>JUAREZ</t>
   </si>
   <si>
     <t>LEON</t>
   </si>
   <si>
+    <t>LIMA</t>
+  </si>
+  <si>
     <t>DE LA LUZ</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MERINO</t>
+  </si>
+  <si>
     <t>MIXCOHUA</t>
   </si>
   <si>
     <t>MORENO</t>
   </si>
   <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
     <t>NERI</t>
   </si>
   <si>
+    <t>PAZ</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>RAMOS</t>
   </si>
   <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROSSAINZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
     <t>VILLANUEVA</t>
   </si>
   <si>
@@ -260,9 +335,30 @@
     <t>GUTIERREZ</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>TLEHUACTLE</t>
+  </si>
+  <si>
     <t>MORO</t>
   </si>
   <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VALERDE</t>
+  </si>
+  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
@@ -275,9 +371,42 @@
     <t>TRUJILLO</t>
   </si>
   <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
     <t>CERON</t>
   </si>
   <si>
+    <t>BERMUDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>KAREN YESSENIA</t>
+  </si>
+  <si>
+    <t>CRYSTAL MICHELL</t>
+  </si>
+  <si>
+    <t>JAZMIN</t>
+  </si>
+  <si>
+    <t>ABDIEL ALFREDO</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>LEYNER</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
     <t>GUADALUPE ABRIL</t>
   </si>
   <si>
@@ -287,190 +416,61 @@
     <t>KEVIN JETHZAEL</t>
   </si>
   <si>
+    <t>TANIA ARLETH</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>JOSE GUILLERMO</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
     <t>DENISSE</t>
   </si>
   <si>
     <t>DANNA PAOLA</t>
   </si>
   <si>
+    <t>GUILLERMO UBALDO</t>
+  </si>
+  <si>
     <t>ISMERAI</t>
   </si>
   <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
     <t>ALEXIS</t>
   </si>
   <si>
     <t>NAHOMY</t>
   </si>
   <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
     <t>NOE</t>
   </si>
   <si>
+    <t>ASAEL PAULINO</t>
+  </si>
+  <si>
+    <t>HEIDI YAMILET</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>JANETH</t>
+  </si>
+  <si>
     <t>JUDITH ESTEFANIA</t>
-  </si>
-  <si>
-    <t>JOSE GUILLERMO</t>
-  </si>
-  <si>
-    <t>AMABLE</t>
-  </si>
-  <si>
-    <t>ALMEIDA</t>
-  </si>
-  <si>
-    <t>BALVIN</t>
-  </si>
-  <si>
-    <t>DEMUNER</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GROTH</t>
-  </si>
-  <si>
-    <t>HEREDIA</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MERINO</t>
-  </si>
-  <si>
-    <t>NARVAEZ</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>ROA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROSSAINZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>TLEHUACTLE</t>
-  </si>
-  <si>
-    <t>MARINERO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VALERDE</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>BERMUDEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>KAREN YESSENIA</t>
-  </si>
-  <si>
-    <t>CRYSTAL MICHELL</t>
-  </si>
-  <si>
-    <t>JAZMIN</t>
-  </si>
-  <si>
-    <t>ABDIEL ALFREDO</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>LEYNER</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>TANIA ARLETH</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>GUILLERMO UBALDO</t>
-  </si>
-  <si>
-    <t>DIANA</t>
-  </si>
-  <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
-    <t>ARIEL</t>
-  </si>
-  <si>
-    <t>ASAEL PAULINO</t>
-  </si>
-  <si>
-    <t>HEIDI YAMILET</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>JANETH</t>
   </si>
   <si>
     <t>MILKA</t>
@@ -984,10 +984,10 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -996,13 +996,13 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -1052,10 +1052,10 @@
         <v>10</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -1064,13 +1064,13 @@
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1120,10 +1120,10 @@
         <v>9</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -1132,13 +1132,13 @@
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1170,7 +1170,7 @@
         <v>-1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1179,19 +1179,19 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <v>-1</v>
@@ -1200,13 +1200,13 @@
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1256,10 +1256,10 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -1268,13 +1268,13 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1324,10 +1324,10 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>-1</v>
@@ -1336,13 +1336,13 @@
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1392,10 +1392,10 @@
         <v>9</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -1404,13 +1404,13 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1442,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -1460,10 +1460,10 @@
         <v>10</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -1472,13 +1472,13 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K12">
         <v>-1</v>
@@ -1540,13 +1540,13 @@
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1578,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1587,19 +1587,19 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1608,13 +1608,13 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1664,10 +1664,10 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
         <v>-1</v>
@@ -1676,13 +1676,13 @@
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1732,10 +1732,10 @@
         <v>8</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K15">
         <v>-1</v>
@@ -1744,13 +1744,13 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -1803,7 +1803,7 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <v>-1</v>
@@ -1812,13 +1812,13 @@
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -1871,7 +1871,7 @@
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
         <v>-1</v>
@@ -1880,13 +1880,13 @@
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -1936,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>-1</v>
@@ -1948,13 +1948,13 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -2004,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K19">
         <v>-1</v>
@@ -2016,13 +2016,13 @@
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -2051,7 +2051,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -2072,10 +2072,10 @@
         <v>10</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K20">
         <v>-1</v>
@@ -2084,13 +2084,13 @@
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2140,10 +2140,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>-1</v>
@@ -2152,13 +2152,13 @@
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2208,10 +2208,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K22">
         <v>-1</v>
@@ -2220,13 +2220,13 @@
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2276,10 +2276,10 @@
         <v>8</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <v>-1</v>
@@ -2288,13 +2288,13 @@
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2344,10 +2344,10 @@
         <v>8</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K24">
         <v>-1</v>
@@ -2356,13 +2356,13 @@
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2394,7 +2394,7 @@
         <v>-1</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -2409,13 +2409,13 @@
         <v>7</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K25">
         <v>-1</v>
@@ -2424,13 +2424,13 @@
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2480,10 +2480,10 @@
         <v>8</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>-1</v>
@@ -2492,13 +2492,13 @@
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -2551,7 +2551,7 @@
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K27">
         <v>-1</v>
@@ -2560,13 +2560,13 @@
         <v>-1</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2616,10 +2616,10 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>-1</v>
@@ -2628,13 +2628,13 @@
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P28">
         <v>-1</v>
@@ -2684,10 +2684,10 @@
         <v>9</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
         <v>-1</v>
@@ -2696,13 +2696,13 @@
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2752,10 +2752,10 @@
         <v>10</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K30">
         <v>-1</v>
@@ -2764,13 +2764,13 @@
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -2820,10 +2820,10 @@
         <v>8</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K31">
         <v>-1</v>
@@ -2832,13 +2832,13 @@
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -2888,10 +2888,10 @@
         <v>9</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K32">
         <v>-1</v>
@@ -2900,13 +2900,13 @@
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P32">
         <v>-1</v>
@@ -2956,10 +2956,10 @@
         <v>10</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K33">
         <v>-1</v>
@@ -2968,13 +2968,13 @@
         <v>-1</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P33">
         <v>-1</v>
@@ -3018,16 +3018,16 @@
         <v>5</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <v>-1</v>
@@ -3036,13 +3036,13 @@
         <v>-1</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P34">
         <v>-1</v>
@@ -3092,10 +3092,10 @@
         <v>10</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K35">
         <v>-1</v>
@@ -3104,13 +3104,13 @@
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P35">
         <v>-1</v>
@@ -3160,10 +3160,10 @@
         <v>10</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K36">
         <v>-1</v>
@@ -3172,13 +3172,13 @@
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P36">
         <v>-1</v>
@@ -3228,10 +3228,10 @@
         <v>10</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K37">
         <v>-1</v>
@@ -3240,13 +3240,13 @@
         <v>-1</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P37">
         <v>-1</v>
@@ -3296,10 +3296,10 @@
         <v>10</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K38">
         <v>-1</v>
@@ -3308,13 +3308,13 @@
         <v>-1</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P38">
         <v>-1</v>
@@ -3364,10 +3364,10 @@
         <v>10</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K39">
         <v>-1</v>
@@ -3376,13 +3376,13 @@
         <v>-1</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P39">
         <v>-1</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -3537,59 +3537,59 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>83.33</v>
       </c>
       <c r="G4">
-        <v>5.56</v>
+        <v>16.67</v>
       </c>
       <c r="H4">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>36</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>83.33</v>
+        <v>86.11</v>
       </c>
       <c r="G5">
-        <v>5.56</v>
+        <v>13.89</v>
       </c>
       <c r="H5">
-        <v>9.1</v>
+        <v>8.4</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -3601,22 +3601,22 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>86.11</v>
       </c>
       <c r="G6">
-        <v>8.33</v>
+        <v>13.89</v>
       </c>
       <c r="H6">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3624,7 +3624,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>36</v>
@@ -3645,10 +3645,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3662,13 +3662,13 @@
         <v>36</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>88.89</v>
+        <v>91.67</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3677,10 +3677,10 @@
         <v>7</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>11.11</v>
+        <v>8.33</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3690,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3722,116 +3722,116 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920193</v>
+        <v>19330051920186</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920195</v>
+        <v>19330051920186</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920195</v>
+        <v>19330051920185</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920195</v>
+        <v>19330051920185</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920195</v>
+        <v>19330051920187</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920197</v>
+        <v>19330051920187</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -3842,156 +3842,156 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920201</v>
+        <v>19330051920189</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920202</v>
+        <v>19330051920189</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920188</v>
+        <v>19330051920190</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920188</v>
+        <v>19330051920190</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920188</v>
+        <v>19330051920192</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920188</v>
+        <v>19330051920192</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920188</v>
+        <v>19330051920194</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920188</v>
+        <v>19330051920194</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -4002,36 +4002,36 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920207</v>
+        <v>19330051920193</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920208</v>
+        <v>19330051920193</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -4042,116 +4042,116 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920208</v>
+        <v>19330051920195</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920208</v>
+        <v>19330051920195</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920208</v>
+        <v>19330051920197</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920210</v>
+        <v>19330051920197</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920210</v>
+        <v>19330051920196</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920214</v>
+        <v>19330051920196</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -4162,16 +4162,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920217</v>
+        <v>19330051920198</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -4182,42 +4182,1082 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920217</v>
+        <v>19330051920198</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
+        <v>19330051920198</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>19330051920199</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>19330051920199</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>19330051920199</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>19330051920200</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>19330051920200</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>19330051920201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>19330051920201</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>19330051920202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>19330051920202</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>19330051920203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>19330051920203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>19330051920188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>19330051920188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>19330051920188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>19330051920204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>19330051920204</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>19330051920206</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>19330051920206</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>19330051920207</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>19330051920207</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>19330051920208</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>19330051920208</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>19330051920208</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>19330051920209</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>19330051920209</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>19330051920210</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>19330051920210</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>19330051920210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>19330051920211</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>19330051920211</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>19330051920215</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>19330051920215</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>19330051920212</v>
+      </c>
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>19330051920212</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>19330051920213</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>19330051920213</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>19330051920214</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>19330051920214</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>19330051920216</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>19330051920216</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
         <v>19330051920217</v>
       </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>19330051920217</v>
+      </c>
+      <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>19330051920218</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>19330051920218</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>19330051920220</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>19330051920220</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>19330051920439</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>19330051920439</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>19330051920219</v>
+      </c>
+      <c r="B75" t="s">
         <v>96</v>
       </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
+      <c r="C75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>19330051920219</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>19330051920221</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>19330051920221</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" t="s">
+        <v>156</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4259,98 +5299,98 @@
         <v>19330051920188</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920195</v>
+        <v>19330051920208</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920208</v>
+        <v>19330051920210</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920217</v>
+        <v>19330051920195</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920210</v>
+        <v>19330051920197</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920193</v>
+        <v>19330051920201</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -4358,16 +5398,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920197</v>
+        <v>19330051920207</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -4375,16 +5415,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920201</v>
+        <v>19330051920214</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4392,16 +5432,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920202</v>
+        <v>19330051920217</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4409,50 +5449,50 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920207</v>
+        <v>19330051920186</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920214</v>
+        <v>19330051920185</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920186</v>
+        <v>19330051920187</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4460,16 +5500,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920185</v>
+        <v>19330051920189</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4477,16 +5517,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920187</v>
+        <v>19330051920190</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4494,16 +5534,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920189</v>
+        <v>19330051920192</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4511,16 +5551,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920190</v>
+        <v>19330051920194</v>
       </c>
       <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
         <v>101</v>
       </c>
-      <c r="C17" t="s">
-        <v>116</v>
-      </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4528,16 +5568,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920192</v>
+        <v>19330051920193</v>
       </c>
       <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4545,16 +5585,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920194</v>
+        <v>19330051920196</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4562,16 +5602,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920196</v>
+        <v>19330051920198</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4579,16 +5619,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920198</v>
+        <v>19330051920199</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4596,16 +5636,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920199</v>
+        <v>19330051920200</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4613,16 +5653,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920200</v>
+        <v>19330051920202</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4633,13 +5673,13 @@
         <v>19330051920203</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4650,13 +5690,13 @@
         <v>19330051920204</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4667,13 +5707,13 @@
         <v>19330051920206</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4684,13 +5724,13 @@
         <v>19330051920209</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4701,13 +5741,13 @@
         <v>19330051920211</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4718,13 +5758,13 @@
         <v>19330051920215</v>
       </c>
       <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4735,13 +5775,13 @@
         <v>19330051920212</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4752,13 +5792,13 @@
         <v>19330051920213</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4769,10 +5809,10 @@
         <v>19330051920216</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
         <v>151</v>
@@ -4786,10 +5826,10 @@
         <v>19330051920218</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
         <v>152</v>
@@ -4803,10 +5843,10 @@
         <v>19330051920220</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
         <v>153</v>
@@ -4820,10 +5860,10 @@
         <v>19330051920439</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
         <v>154</v>
@@ -4837,10 +5877,10 @@
         <v>19330051920219</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
         <v>155</v>
@@ -4854,10 +5894,10 @@
         <v>19330051920221</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
         <v>156</v>
@@ -4873,7 +5913,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4908,62 +5948,62 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920194</v>
+        <v>19330051920186</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920194</v>
+        <v>19330051920186</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920197</v>
+        <v>19330051920185</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -4972,21 +6012,21 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920197</v>
+        <v>19330051920185</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -4995,21 +6035,21 @@
         <v>58</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920214</v>
+        <v>19330051920187</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -5018,21 +6058,21 @@
         <v>57</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920214</v>
+        <v>19330051920187</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -5041,53 +6081,1111 @@
         <v>58</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920193</v>
+        <v>19330051920189</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
+        <v>19330051920189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920192</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920193</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920197</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920196</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920200</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920200</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920203</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920204</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920204</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920206</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920206</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
         <v>19330051920207</v>
       </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
       </c>
-      <c r="G9">
-        <v>-1</v>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920207</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920209</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920209</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>19330051920211</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>19330051920211</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>19330051920215</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>19330051920215</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>19330051920212</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>19330051920212</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>19330051920213</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>19330051920213</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>19330051920214</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>19330051920214</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>19330051920216</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>19330051920216</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>19330051920218</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>19330051920218</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>19330051920220</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>19330051920220</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>19330051920439</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>19330051920439</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>19330051920219</v>
+      </c>
+      <c r="B52" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>19330051920219</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>19330051920221</v>
+      </c>
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>19330051920221</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4BLCM - Estadisticos 2020.xlsx
+++ b/grupos/4BLCM - Estadisticos 2020.xlsx
@@ -197,10 +197,10 @@
     <t>Avila Coronado Julieta</t>
   </si>
   <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
     <t>Ángel Martínez Noe Cristobal</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
     <t>Ortega Valle Manuel</t>
@@ -3470,25 +3470,22 @@
         <v>36</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>27</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>75</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>7.7</v>
-      </c>
       <c r="I2">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3502,30 +3499,27 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>77.78</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>22.22</v>
-      </c>
-      <c r="H3">
-        <v>8.4</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -3546,7 +3540,7 @@
         <v>16.67</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3557,28 +3551,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>36</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>86.11</v>
+        <v>83.33</v>
       </c>
       <c r="G5">
-        <v>13.89</v>
+        <v>16.67</v>
       </c>
       <c r="H5">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3589,10 +3583,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>36</v>
@@ -3601,48 +3595,48 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>86.11</v>
       </c>
       <c r="G6">
+        <v>5.56</v>
+      </c>
+      <c r="H6">
+        <v>7.9</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
         <v>13.89</v>
-      </c>
-      <c r="H6">
-        <v>7.5</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>36</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>86.11</v>
+        <v>88.89</v>
       </c>
       <c r="G7">
-        <v>8.33</v>
+        <v>11.11</v>
       </c>
       <c r="H7">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3653,34 +3647,34 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>36</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>88.89</v>
+      </c>
+      <c r="G8">
+        <v>5.56</v>
+      </c>
+      <c r="H8">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>91.67</v>
-      </c>
-      <c r="G8">
+      <c r="J8">
         <v>0</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>8.33</v>
       </c>
     </row>
   </sheetData>
@@ -3734,10 +3728,10 @@
         <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3754,10 +3748,10 @@
         <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3774,10 +3768,10 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3794,10 +3788,10 @@
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3814,10 +3808,10 @@
         <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3834,10 +3828,10 @@
         <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3854,10 +3848,10 @@
         <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3874,10 +3868,10 @@
         <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3894,10 +3888,10 @@
         <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3914,10 +3908,10 @@
         <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3934,10 +3928,10 @@
         <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3954,10 +3948,10 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4014,10 +4008,10 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4034,10 +4028,10 @@
         <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4094,10 +4088,10 @@
         <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4114,10 +4108,10 @@
         <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4174,10 +4168,10 @@
         <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4194,10 +4188,10 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4234,10 +4228,10 @@
         <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4254,10 +4248,10 @@
         <v>134</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4274,10 +4268,10 @@
         <v>134</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4334,10 +4328,10 @@
         <v>136</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4354,10 +4348,10 @@
         <v>136</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4374,10 +4368,10 @@
         <v>137</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4394,10 +4388,10 @@
         <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4454,10 +4448,10 @@
         <v>139</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4474,10 +4468,10 @@
         <v>139</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4494,10 +4488,10 @@
         <v>139</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4554,10 +4548,10 @@
         <v>141</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4574,10 +4568,10 @@
         <v>141</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4734,10 +4728,10 @@
         <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4754,10 +4748,10 @@
         <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4834,10 +4828,10 @@
         <v>147</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4854,10 +4848,10 @@
         <v>147</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4914,10 +4908,10 @@
         <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4934,10 +4928,10 @@
         <v>149</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4994,10 +4988,10 @@
         <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5014,10 +5008,10 @@
         <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5034,10 +5028,10 @@
         <v>134</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5054,10 +5048,10 @@
         <v>134</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5074,10 +5068,10 @@
         <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5094,10 +5088,10 @@
         <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5114,10 +5108,10 @@
         <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5134,10 +5128,10 @@
         <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5296,529 +5290,529 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920188</v>
+        <v>19330051920198</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920208</v>
+        <v>19330051920199</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920210</v>
+        <v>19330051920188</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920195</v>
+        <v>19330051920208</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920197</v>
+        <v>19330051920210</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920201</v>
+        <v>19330051920186</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920207</v>
+        <v>19330051920185</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920214</v>
+        <v>19330051920187</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920217</v>
+        <v>19330051920189</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920186</v>
+        <v>19330051920190</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920185</v>
+        <v>19330051920192</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920187</v>
+        <v>19330051920194</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920189</v>
+        <v>19330051920193</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920190</v>
+        <v>19330051920195</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920192</v>
+        <v>19330051920197</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920194</v>
+        <v>19330051920196</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920193</v>
+        <v>19330051920200</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920196</v>
+        <v>19330051920201</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920198</v>
+        <v>19330051920202</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920199</v>
+        <v>19330051920203</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920200</v>
+        <v>19330051920204</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920202</v>
+        <v>19330051920206</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920203</v>
+        <v>19330051920207</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920204</v>
+        <v>19330051920209</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920206</v>
+        <v>19330051920211</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920209</v>
+        <v>19330051920215</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920211</v>
+        <v>19330051920212</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920215</v>
+        <v>19330051920213</v>
       </c>
       <c r="B29" t="s">
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920212</v>
+        <v>19330051920214</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920213</v>
+        <v>19330051920216</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920216</v>
+        <v>19330051920217</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5835,7 +5829,7 @@
         <v>152</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5852,7 +5846,7 @@
         <v>153</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5869,7 +5863,7 @@
         <v>154</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5886,7 +5880,7 @@
         <v>155</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5903,7 +5897,7 @@
         <v>156</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5943,7 +5937,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5966,7 +5960,7 @@
         <v>57</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5989,7 +5983,7 @@
         <v>58</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6012,7 +6006,7 @@
         <v>57</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6035,7 +6029,7 @@
         <v>58</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6058,7 +6052,7 @@
         <v>57</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6081,7 +6075,7 @@
         <v>58</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6104,7 +6098,7 @@
         <v>57</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6127,7 +6121,7 @@
         <v>58</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6150,7 +6144,7 @@
         <v>57</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6173,7 +6167,7 @@
         <v>58</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6196,7 +6190,7 @@
         <v>57</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6219,7 +6213,7 @@
         <v>58</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6242,7 +6236,7 @@
         <v>57</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6265,7 +6259,7 @@
         <v>58</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6311,7 +6305,7 @@
         <v>58</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6334,7 +6328,7 @@
         <v>57</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6357,7 +6351,7 @@
         <v>58</v>
       </c>
       <c r="G19">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6380,7 +6374,7 @@
         <v>57</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6403,7 +6397,7 @@
         <v>58</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6426,7 +6420,7 @@
         <v>57</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6449,7 +6443,7 @@
         <v>58</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6472,7 +6466,7 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6495,7 +6489,7 @@
         <v>58</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6518,7 +6512,7 @@
         <v>57</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6541,7 +6535,7 @@
         <v>58</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6564,7 +6558,7 @@
         <v>57</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6587,7 +6581,7 @@
         <v>58</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6633,7 +6627,7 @@
         <v>58</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6656,7 +6650,7 @@
         <v>57</v>
       </c>
       <c r="G32">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6679,7 +6673,7 @@
         <v>58</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6702,7 +6696,7 @@
         <v>57</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6725,7 +6719,7 @@
         <v>58</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6748,7 +6742,7 @@
         <v>57</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6771,7 +6765,7 @@
         <v>58</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6794,7 +6788,7 @@
         <v>57</v>
       </c>
       <c r="G38">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6817,7 +6811,7 @@
         <v>58</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6840,7 +6834,7 @@
         <v>57</v>
       </c>
       <c r="G40">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6863,7 +6857,7 @@
         <v>58</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6909,7 +6903,7 @@
         <v>58</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6932,7 +6926,7 @@
         <v>57</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -6955,7 +6949,7 @@
         <v>58</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6978,7 +6972,7 @@
         <v>57</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7001,7 +6995,7 @@
         <v>58</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7024,7 +7018,7 @@
         <v>57</v>
       </c>
       <c r="G48">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -7047,7 +7041,7 @@
         <v>58</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -7070,7 +7064,7 @@
         <v>57</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7093,7 +7087,7 @@
         <v>58</v>
       </c>
       <c r="G51">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -7116,7 +7110,7 @@
         <v>57</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -7139,7 +7133,7 @@
         <v>58</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -7162,7 +7156,7 @@
         <v>57</v>
       </c>
       <c r="G54">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -7185,7 +7179,7 @@
         <v>58</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4BLCM - Estadisticos 2020.xlsx
+++ b/grupos/4BLCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="157">
   <si>
     <t>Materia</t>
   </si>
@@ -191,10 +191,10 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Avila Coronado Julieta</t>
+  </si>
+  <si>
     <t>Medina Tolentino Elio</t>
-  </si>
-  <si>
-    <t>Avila Coronado Julieta</t>
   </si>
   <si>
     <t>Camarillo Aburto Raymundo</t>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L4">
         <v>-1</v>
@@ -1058,7 +1058,7 @@
         <v>10</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -1126,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>-1</v>
@@ -1262,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -1330,7 +1330,7 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L9">
         <v>-1</v>
@@ -1398,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>-1</v>
@@ -1466,7 +1466,7 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -1670,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1806,7 +1806,7 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
         <v>-1</v>
@@ -1874,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -1942,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -2078,7 +2078,7 @@
         <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L20">
         <v>-1</v>
@@ -2146,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -2282,7 +2282,7 @@
         <v>10</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>-1</v>
@@ -2486,7 +2486,7 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L26">
         <v>-1</v>
@@ -2622,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>-1</v>
@@ -2690,7 +2690,7 @@
         <v>10</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L29">
         <v>-1</v>
@@ -2758,7 +2758,7 @@
         <v>10</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L30">
         <v>-1</v>
@@ -2826,7 +2826,7 @@
         <v>6</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L31">
         <v>-1</v>
@@ -2873,7 +2873,7 @@
         <v>7</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -2894,7 +2894,7 @@
         <v>7</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L32">
         <v>-1</v>
@@ -2962,7 +2962,7 @@
         <v>10</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L33">
         <v>-1</v>
@@ -3098,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L35">
         <v>-1</v>
@@ -3166,7 +3166,7 @@
         <v>10</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L36">
         <v>-1</v>
@@ -3234,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L37">
         <v>-1</v>
@@ -3370,7 +3370,7 @@
         <v>10</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L39">
         <v>-1</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -3473,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>36</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -3499,22 +3499,25 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>69.44</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>8.33</v>
+      </c>
+      <c r="H3">
+        <v>8.4</v>
       </c>
       <c r="I3">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3684,7 +3687,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3728,7 +3731,7 @@
         <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -3736,39 +3739,39 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920186</v>
+        <v>19330051920185</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920185</v>
+        <v>19330051920187</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
@@ -3776,39 +3779,39 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920185</v>
+        <v>19330051920189</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920187</v>
+        <v>19330051920190</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -3816,79 +3819,79 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920187</v>
+        <v>19330051920192</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920189</v>
+        <v>19330051920194</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920189</v>
+        <v>19330051920194</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920190</v>
+        <v>19330051920193</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
@@ -3896,39 +3899,39 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920190</v>
+        <v>19330051920195</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920192</v>
+        <v>19330051920195</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
         <v>58</v>
@@ -3936,59 +3939,59 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920192</v>
+        <v>19330051920197</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920194</v>
+        <v>19330051920197</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920194</v>
+        <v>19330051920196</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -3996,79 +3999,79 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920193</v>
+        <v>19330051920198</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920193</v>
+        <v>19330051920198</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920195</v>
+        <v>19330051920199</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920195</v>
+        <v>19330051920199</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
         <v>57</v>
@@ -4076,79 +4079,79 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920197</v>
+        <v>19330051920200</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920197</v>
+        <v>19330051920201</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920196</v>
+        <v>19330051920201</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920196</v>
+        <v>19330051920202</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
         <v>57</v>
@@ -4156,39 +4159,39 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920198</v>
+        <v>19330051920203</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920198</v>
+        <v>19330051920188</v>
       </c>
       <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
         <v>75</v>
       </c>
-      <c r="C25" t="s">
-        <v>106</v>
-      </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
         <v>57</v>
@@ -4196,16 +4199,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920198</v>
+        <v>19330051920188</v>
       </c>
       <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -4216,79 +4219,79 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920199</v>
+        <v>19330051920188</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920199</v>
+        <v>19330051920204</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920199</v>
+        <v>19330051920204</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920200</v>
+        <v>19330051920206</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
         <v>57</v>
@@ -4296,39 +4299,39 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920200</v>
+        <v>19330051920207</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920201</v>
+        <v>19330051920207</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
         <v>58</v>
@@ -4336,39 +4339,39 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920201</v>
+        <v>19330051920208</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920202</v>
+        <v>19330051920208</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
         <v>57</v>
@@ -4376,19 +4379,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920202</v>
+        <v>19330051920208</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
         <v>58</v>
@@ -4396,19 +4399,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920203</v>
+        <v>19330051920209</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
         <v>57</v>
@@ -4416,19 +4419,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920203</v>
+        <v>19330051920210</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
         <v>58</v>
@@ -4436,59 +4439,59 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920188</v>
+        <v>19330051920210</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920188</v>
+        <v>19330051920210</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920188</v>
+        <v>19330051920211</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
         <v>57</v>
@@ -4496,39 +4499,39 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920204</v>
+        <v>19330051920215</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920204</v>
+        <v>19330051920212</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
         <v>57</v>
@@ -4536,19 +4539,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920206</v>
+        <v>19330051920213</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
         <v>57</v>
@@ -4556,119 +4559,119 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920206</v>
+        <v>19330051920214</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920207</v>
+        <v>19330051920216</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920207</v>
+        <v>19330051920217</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920208</v>
+        <v>19330051920217</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920208</v>
+        <v>19330051920218</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920208</v>
+        <v>19330051920220</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
         <v>57</v>
@@ -4676,19 +4679,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920209</v>
+        <v>19330051920439</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" t="s">
         <v>58</v>
@@ -4696,19 +4699,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920209</v>
+        <v>19330051920439</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
         <v>57</v>
@@ -4716,19 +4719,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920210</v>
+        <v>19330051920219</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
         <v>57</v>
@@ -4736,521 +4739,21 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920210</v>
+        <v>19330051920221</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920210</v>
-      </c>
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" t="s">
-        <v>145</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920211</v>
-      </c>
-      <c r="B55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" t="s">
-        <v>146</v>
-      </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920211</v>
-      </c>
-      <c r="B56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920215</v>
-      </c>
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920215</v>
-      </c>
-      <c r="B58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920212</v>
-      </c>
-      <c r="B59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>19330051920212</v>
-      </c>
-      <c r="B60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" t="s">
-        <v>148</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>19330051920213</v>
-      </c>
-      <c r="B61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>19330051920213</v>
-      </c>
-      <c r="B62" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>19330051920214</v>
-      </c>
-      <c r="B63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920214</v>
-      </c>
-      <c r="B64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920216</v>
-      </c>
-      <c r="B65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920216</v>
-      </c>
-      <c r="B66" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920217</v>
-      </c>
-      <c r="B67" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920217</v>
-      </c>
-      <c r="B68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920218</v>
-      </c>
-      <c r="B69" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D69" t="s">
-        <v>152</v>
-      </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920218</v>
-      </c>
-      <c r="B70" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" t="s">
-        <v>152</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920220</v>
-      </c>
-      <c r="B71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920220</v>
-      </c>
-      <c r="B72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920439</v>
-      </c>
-      <c r="B73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920439</v>
-      </c>
-      <c r="B74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" t="s">
-        <v>154</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920219</v>
-      </c>
-      <c r="B75" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" t="s">
-        <v>155</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920219</v>
-      </c>
-      <c r="B76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920221</v>
-      </c>
-      <c r="B77" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" t="s">
-        <v>156</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920221</v>
-      </c>
-      <c r="B78" t="s">
-        <v>97</v>
-      </c>
-      <c r="C78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" t="s">
-        <v>156</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5290,16 +4793,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920198</v>
+        <v>19330051920188</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -5307,16 +4810,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920199</v>
+        <v>19330051920208</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -5324,16 +4827,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920188</v>
+        <v>19330051920210</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -5341,50 +4844,50 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920208</v>
+        <v>19330051920194</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920210</v>
+        <v>19330051920195</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920186</v>
+        <v>19330051920197</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -5392,16 +4895,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920185</v>
+        <v>19330051920198</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -5409,16 +4912,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920187</v>
+        <v>19330051920199</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -5426,16 +4929,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920189</v>
+        <v>19330051920201</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -5443,16 +4946,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920190</v>
+        <v>19330051920204</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -5460,16 +4963,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920192</v>
+        <v>19330051920207</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -5477,16 +4980,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920194</v>
+        <v>19330051920217</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -5494,16 +4997,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920193</v>
+        <v>19330051920439</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -5511,359 +5014,359 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920195</v>
+        <v>19330051920186</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920197</v>
+        <v>19330051920185</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920196</v>
+        <v>19330051920187</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920200</v>
+        <v>19330051920189</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920201</v>
+        <v>19330051920190</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920202</v>
+        <v>19330051920192</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920203</v>
+        <v>19330051920193</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920204</v>
+        <v>19330051920196</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920206</v>
+        <v>19330051920200</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920207</v>
+        <v>19330051920202</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920209</v>
+        <v>19330051920203</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920211</v>
+        <v>19330051920206</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920215</v>
+        <v>19330051920209</v>
       </c>
       <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
         <v>89</v>
       </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920212</v>
+        <v>19330051920211</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920213</v>
+        <v>19330051920215</v>
       </c>
       <c r="B29" t="s">
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920214</v>
+        <v>19330051920212</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920216</v>
+        <v>19330051920213</v>
       </c>
       <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
       <c r="D31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920217</v>
+        <v>19330051920214</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920218</v>
+        <v>19330051920216</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920220</v>
+        <v>19330051920218</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920439</v>
+        <v>19330051920220</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5880,7 +5383,7 @@
         <v>155</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5897,7 +5400,7 @@
         <v>156</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5907,7 +5410,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5942,22 +5445,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920186</v>
+        <v>19330051920197</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -5965,22 +5468,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920186</v>
+        <v>19330051920197</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -5988,22 +5491,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920185</v>
+        <v>19330051920198</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -6011,22 +5514,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920185</v>
+        <v>19330051920198</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -6034,22 +5537,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920187</v>
+        <v>19330051920199</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -6057,22 +5560,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920187</v>
+        <v>19330051920199</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -6080,22 +5583,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920189</v>
+        <v>19330051920204</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -6103,22 +5606,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920189</v>
+        <v>19330051920204</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -6126,22 +5629,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920190</v>
+        <v>19330051920207</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -6149,22 +5652,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920190</v>
+        <v>19330051920207</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -6172,22 +5675,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920192</v>
+        <v>19330051920439</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -6195,22 +5698,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920192</v>
+        <v>19330051920439</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13">
         <v>-1</v>
@@ -6218,19 +5721,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920193</v>
+        <v>19330051920186</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
         <v>57</v>
@@ -6241,22 +5744,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920193</v>
+        <v>19330051920185</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15">
         <v>-1</v>
@@ -6264,19 +5767,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920197</v>
+        <v>19330051920187</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
         <v>57</v>
@@ -6287,22 +5790,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920197</v>
+        <v>19330051920189</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17">
         <v>-1</v>
@@ -6310,19 +5813,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920196</v>
+        <v>19330051920190</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
         <v>57</v>
@@ -6333,22 +5836,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920196</v>
+        <v>19330051920192</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>-1</v>
@@ -6356,19 +5859,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19330051920200</v>
+        <v>19330051920193</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
         <v>57</v>
@@ -6379,22 +5882,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19330051920200</v>
+        <v>19330051920196</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21">
         <v>-1</v>
@@ -6402,19 +5905,19 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19330051920202</v>
+        <v>19330051920200</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
         <v>57</v>
@@ -6440,7 +5943,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23">
         <v>-1</v>
@@ -6460,7 +5963,7 @@
         <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
         <v>57</v>
@@ -6471,22 +5974,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>19330051920203</v>
+        <v>19330051920206</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25">
         <v>-1</v>
@@ -6494,19 +5997,19 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>19330051920204</v>
+        <v>19330051920209</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
         <v>57</v>
@@ -6517,22 +6020,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>19330051920204</v>
+        <v>19330051920211</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27">
         <v>-1</v>
@@ -6540,19 +6043,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>19330051920206</v>
+        <v>19330051920215</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
         <v>57</v>
@@ -6563,22 +6066,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>19330051920206</v>
+        <v>19330051920212</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29">
         <v>-1</v>
@@ -6586,19 +6089,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>19330051920207</v>
+        <v>19330051920213</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
         <v>57</v>
@@ -6609,22 +6112,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>19330051920207</v>
+        <v>19330051920214</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G31">
         <v>-1</v>
@@ -6632,19 +6135,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>19330051920209</v>
+        <v>19330051920216</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
         <v>57</v>
@@ -6655,22 +6158,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>19330051920209</v>
+        <v>19330051920218</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33">
         <v>-1</v>
@@ -6678,19 +6181,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>19330051920211</v>
+        <v>19330051920220</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
         <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
         <v>57</v>
@@ -6701,22 +6204,22 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>19330051920211</v>
+        <v>19330051920219</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35">
         <v>-1</v>
@@ -6724,461 +6227,24 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>19330051920215</v>
+        <v>19330051920221</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
         <v>57</v>
       </c>
       <c r="G36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>19330051920215</v>
-      </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>19330051920212</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>19330051920212</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>19330051920213</v>
-      </c>
-      <c r="B40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>19330051920213</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>19330051920214</v>
-      </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>19330051920214</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>19330051920216</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>19330051920216</v>
-      </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>19330051920218</v>
-      </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>19330051920218</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>19330051920220</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>19330051920220</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" t="s">
-        <v>153</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>19330051920439</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>19330051920439</v>
-      </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>19330051920219</v>
-      </c>
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>19330051920219</v>
-      </c>
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>19330051920221</v>
-      </c>
-      <c r="B54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>19330051920221</v>
-      </c>
-      <c r="B55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G55">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4BLCM - Estadisticos 2020.xlsx
+++ b/grupos/4BLCM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="157">
   <si>
     <t>Materia</t>
   </si>
@@ -191,12 +191,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Medina Tolentino Elio</t>
+  </si>
+  <si>
     <t>Avila Coronado Julieta</t>
   </si>
   <si>
-    <t>Medina Tolentino Elio</t>
-  </si>
-  <si>
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
@@ -218,6 +218,114 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>GROTH</t>
+  </si>
+  <si>
+    <t>GUILLEN</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>NERI</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROSSAINZ</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>LINARES</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>SILVESTRE</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>MORO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>EDITH</t>
+  </si>
+  <si>
+    <t>KEVIN JETHZAEL</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>JOSE GUILLERMO</t>
+  </si>
+  <si>
+    <t>DENISSE</t>
+  </si>
+  <si>
+    <t>ISMERAI</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>NAHOMY</t>
+  </si>
+  <si>
+    <t>NOE</t>
+  </si>
+  <si>
+    <t>SARAI</t>
+  </si>
+  <si>
     <t>AMABLE</t>
   </si>
   <si>
@@ -236,54 +344,24 @@
     <t>GARCIA</t>
   </si>
   <si>
-    <t>GROTH</t>
-  </si>
-  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>GUILLEN</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
     <t>HEREDIA</t>
   </si>
   <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
     <t>LEON</t>
   </si>
   <si>
     <t>LIMA</t>
   </si>
   <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>MERINO</t>
   </si>
   <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>MORENO</t>
-  </si>
-  <si>
     <t>NARVAEZ</t>
   </si>
   <si>
-    <t>NERI</t>
-  </si>
-  <si>
     <t>PAZ</t>
   </si>
   <si>
@@ -296,18 +374,12 @@
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
     <t>ROA</t>
   </si>
   <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>ROSSAINZ</t>
-  </si>
-  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
@@ -323,66 +395,30 @@
     <t>MENDOZA</t>
   </si>
   <si>
-    <t>GASCA</t>
-  </si>
-  <si>
     <t>VILLANUEVA</t>
   </si>
   <si>
-    <t>LINARES</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
     <t>TLEHUACTLE</t>
   </si>
   <si>
-    <t>MORO</t>
-  </si>
-  <si>
     <t>MARINERO</t>
   </si>
   <si>
-    <t>TORRES</t>
-  </si>
-  <si>
     <t>VALERDE</t>
   </si>
   <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
     <t>TRUJILLO</t>
   </si>
   <si>
     <t>BERNABE</t>
   </si>
   <si>
-    <t>CERON</t>
-  </si>
-  <si>
     <t>BERMUDEZ</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>TEMOXTLE</t>
   </si>
   <si>
@@ -404,60 +440,27 @@
     <t>LEYNER</t>
   </si>
   <si>
-    <t>ARELY</t>
-  </si>
-  <si>
     <t>GUADALUPE ABRIL</t>
   </si>
   <si>
-    <t>EDITH</t>
-  </si>
-  <si>
-    <t>KEVIN JETHZAEL</t>
-  </si>
-  <si>
     <t>TANIA ARLETH</t>
   </si>
   <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>JOSE GUILLERMO</t>
-  </si>
-  <si>
     <t>MARIANA</t>
   </si>
   <si>
-    <t>DENISSE</t>
-  </si>
-  <si>
     <t>DANNA PAOLA</t>
   </si>
   <si>
     <t>GUILLERMO UBALDO</t>
   </si>
   <si>
-    <t>ISMERAI</t>
-  </si>
-  <si>
-    <t>DIANA</t>
-  </si>
-  <si>
     <t>JULIO CESAR</t>
   </si>
   <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>NAHOMY</t>
-  </si>
-  <si>
     <t>ARIEL</t>
   </si>
   <si>
-    <t>NOE</t>
-  </si>
-  <si>
     <t>ASAEL PAULINO</t>
   </si>
   <si>
@@ -480,9 +483,6 @@
   </si>
   <si>
     <t>FATIMA</t>
-  </si>
-  <si>
-    <t>SARAI</t>
   </si>
   <si>
     <t>ATZIN ADAO</t>
@@ -993,7 +993,7 @@
         <v>9</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -1061,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -1129,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M6">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M8">
         <v>10</v>
@@ -1333,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M9">
         <v>10</v>
@@ -1401,7 +1401,7 @@
         <v>9</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -1469,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -1537,7 +1537,7 @@
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>5</v>
@@ -1605,7 +1605,7 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>7</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
         <v>10</v>
@@ -1741,7 +1741,7 @@
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
         <v>5</v>
@@ -1809,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M16">
         <v>5</v>
@@ -1877,7 +1877,7 @@
         <v>8</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M17">
         <v>9</v>
@@ -1945,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M18">
         <v>9</v>
@@ -2013,7 +2013,7 @@
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M19">
         <v>9</v>
@@ -2081,7 +2081,7 @@
         <v>8</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>9</v>
@@ -2149,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M21">
         <v>9</v>
@@ -2217,7 +2217,7 @@
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <v>5</v>
@@ -2285,7 +2285,7 @@
         <v>6</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M23">
         <v>8</v>
@@ -2353,7 +2353,7 @@
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -2421,7 +2421,7 @@
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>5</v>
@@ -2489,7 +2489,7 @@
         <v>9</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M26">
         <v>7</v>
@@ -2557,7 +2557,7 @@
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M27">
         <v>5</v>
@@ -2625,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M28">
         <v>10</v>
@@ -2693,7 +2693,7 @@
         <v>9</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M29">
         <v>8</v>
@@ -2761,7 +2761,7 @@
         <v>9</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M30">
         <v>10</v>
@@ -2829,7 +2829,7 @@
         <v>6</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <v>10</v>
@@ -2897,7 +2897,7 @@
         <v>7</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M32">
         <v>5</v>
@@ -2965,7 +2965,7 @@
         <v>9</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M33">
         <v>10</v>
@@ -3033,7 +3033,7 @@
         <v>-1</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M34">
         <v>5</v>
@@ -3101,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M35">
         <v>9</v>
@@ -3169,7 +3169,7 @@
         <v>9</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M36">
         <v>10</v>
@@ -3237,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M37">
         <v>10</v>
@@ -3305,7 +3305,7 @@
         <v>-1</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M38">
         <v>10</v>
@@ -3373,7 +3373,7 @@
         <v>8</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M39">
         <v>9</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -3470,27 +3470,30 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>69.44</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>8.33</v>
+      </c>
+      <c r="H2">
+        <v>8.4</v>
       </c>
       <c r="I2">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -3499,25 +3502,25 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>69.44</v>
+        <v>77.78</v>
       </c>
       <c r="G3">
-        <v>8.33</v>
+        <v>22.22</v>
       </c>
       <c r="H3">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>30.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3687,7 +3690,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3719,19 +3722,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>19330051920186</v>
+        <v>19330051920194</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -3739,19 +3742,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920185</v>
+        <v>19330051920195</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
@@ -3759,19 +3762,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920187</v>
+        <v>19330051920197</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>57</v>
@@ -3779,59 +3782,59 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920189</v>
+        <v>19330051920198</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920190</v>
+        <v>19330051920199</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920192</v>
+        <v>19330051920201</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>57</v>
@@ -3839,59 +3842,59 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920194</v>
+        <v>19330051920188</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920194</v>
+        <v>19330051920188</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920193</v>
+        <v>19330051920204</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
@@ -3899,19 +3902,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920195</v>
+        <v>19330051920207</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
@@ -3919,59 +3922,59 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920195</v>
+        <v>19330051920208</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920197</v>
+        <v>19330051920208</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920197</v>
+        <v>19330051920210</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>57</v>
@@ -3979,781 +3982,61 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920196</v>
+        <v>19330051920210</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920198</v>
+        <v>19330051920217</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920198</v>
+        <v>19330051920439</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>19330051920199</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>19330051920199</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19330051920200</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>19330051920201</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>19330051920201</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>19330051920202</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>19330051920203</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>19330051920188</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>19330051920188</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>19330051920188</v>
-      </c>
-      <c r="B27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>19330051920204</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>19330051920204</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>19330051920206</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>19330051920207</v>
-      </c>
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>19330051920207</v>
-      </c>
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>19330051920208</v>
-      </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>19330051920208</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>19330051920208</v>
-      </c>
-      <c r="B35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>19330051920209</v>
-      </c>
-      <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>19330051920210</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>19330051920210</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>19330051920210</v>
-      </c>
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>19330051920211</v>
-      </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>19330051920215</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>19330051920212</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>19330051920213</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>19330051920214</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>19330051920216</v>
-      </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>19330051920217</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>19330051920217</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>19330051920218</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>19330051920220</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" t="s">
-        <v>153</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>19330051920439</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051920439</v>
-      </c>
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051920219</v>
-      </c>
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051920221</v>
-      </c>
-      <c r="B53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4796,16 +4079,16 @@
         <v>19330051920188</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4813,16 +4096,16 @@
         <v>19330051920208</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4830,16 +4113,16 @@
         <v>19330051920210</v>
       </c>
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4847,16 +4130,16 @@
         <v>19330051920194</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4864,16 +4147,16 @@
         <v>19330051920195</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4881,16 +4164,16 @@
         <v>19330051920197</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4898,16 +4181,16 @@
         <v>19330051920198</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4915,16 +4198,16 @@
         <v>19330051920199</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4932,16 +4215,16 @@
         <v>19330051920201</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4949,16 +4232,16 @@
         <v>19330051920204</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4966,16 +4249,16 @@
         <v>19330051920207</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4983,16 +4266,16 @@
         <v>19330051920217</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5000,16 +4283,16 @@
         <v>19330051920439</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5017,16 +4300,16 @@
         <v>19330051920186</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5034,16 +4317,16 @@
         <v>19330051920185</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5051,16 +4334,16 @@
         <v>19330051920187</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5068,16 +4351,16 @@
         <v>19330051920189</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5085,16 +4368,16 @@
         <v>19330051920190</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5102,16 +4385,16 @@
         <v>19330051920192</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5119,16 +4402,16 @@
         <v>19330051920193</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5136,16 +4419,16 @@
         <v>19330051920196</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5153,16 +4436,16 @@
         <v>19330051920200</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5170,16 +4453,16 @@
         <v>19330051920202</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5187,16 +4470,16 @@
         <v>19330051920203</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5204,16 +4487,16 @@
         <v>19330051920206</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5221,16 +4504,16 @@
         <v>19330051920209</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5238,16 +4521,16 @@
         <v>19330051920211</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5255,16 +4538,16 @@
         <v>19330051920215</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5272,16 +4555,16 @@
         <v>19330051920212</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5289,16 +4572,16 @@
         <v>19330051920213</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5306,16 +4589,16 @@
         <v>19330051920214</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5323,16 +4606,16 @@
         <v>19330051920216</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5340,16 +4623,16 @@
         <v>19330051920218</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5357,16 +4640,16 @@
         <v>19330051920220</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5374,16 +4657,16 @@
         <v>19330051920219</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
         <v>155</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5391,16 +4674,16 @@
         <v>19330051920221</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
         <v>156</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5410,7 +4693,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5445,42 +4728,42 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920197</v>
+        <v>19330051920201</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920197</v>
+        <v>19330051920201</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
@@ -5491,22 +4774,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920198</v>
+        <v>19330051920197</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -5517,19 +4800,19 @@
         <v>19330051920198</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5540,13 +4823,13 @@
         <v>19330051920199</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -5560,25 +4843,25 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920199</v>
+        <v>19330051920202</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5586,19 +4869,19 @@
         <v>19330051920204</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -5606,19 +4889,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920204</v>
+        <v>19330051920207</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -5629,622 +4912,47 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920207</v>
+        <v>19330051920214</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920207</v>
+        <v>19330051920439</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>57</v>
       </c>
       <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920439</v>
-      </c>
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920439</v>
-      </c>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920186</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920185</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>19330051920187</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>19330051920189</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920190</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920192</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920193</v>
-      </c>
-      <c r="B20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920196</v>
-      </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920200</v>
-      </c>
-      <c r="B22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920202</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>19330051920203</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>19330051920206</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>19330051920209</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>19330051920211</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>19330051920215</v>
-      </c>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>19330051920212</v>
-      </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>148</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>19330051920213</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>19330051920214</v>
-      </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>19330051920216</v>
-      </c>
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>19330051920218</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" t="s">
-        <v>152</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>19330051920220</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>19330051920219</v>
-      </c>
-      <c r="B35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>19330051920221</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36">
         <v>-1</v>
       </c>
     </row>
